--- a/Excel_Data_Cleaning_and_Analysis/Excel_datasets/homes.xlsx
+++ b/Excel_Data_Cleaning_and_Analysis/Excel_datasets/homes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpar\Desktop\Summer 2025\statistics-projects-summer-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25087350-B1F0-4ED7-87C1-9EE31EC43076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B834C8D-0FBC-491D-8CF4-32EDB0905BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>tot selling price</t>
-  </si>
-  <si>
-    <t>tot selling price for homes with 3/more beds</t>
   </si>
   <si>
     <t>tot home less than 50 years old</t>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Slicer 2.2</t>
+  </si>
+  <si>
+    <t>tot selling price for homes with more than 4 beds</t>
   </si>
 </sst>
 </file>
@@ -9373,7 +9373,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
+      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9446,7 +9446,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
+      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9519,7 +9519,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
+      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11037,250 +11037,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
-  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="5">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
-  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2932BBF5-7783-4F9E-8970-645FBFA40D90}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Beds">
   <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -11402,26 +11158,26 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="17">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="3">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11445,6 +11201,250 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11829,11 +11829,11 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF462E4-7EA0-43F3-B75E-ACA8CE6C4991}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11881,19 +11881,19 @@
         <v>5</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -11911,8 +11911,8 @@
         <v>18</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF(B2&gt;150, "yes", "no")</f>
-        <v>no</v>
+        <f>A52</f>
+        <v>tot selling price</v>
       </c>
       <c r="F2" s="8">
         <v>28</v>
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -12009,7 +12009,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -12063,7 +12063,7 @@
         <v>10</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -14344,9 +14344,9 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B54" s="8">
         <f>SUMIF(H2:H51,"&gt;4",B2:B51)</f>
@@ -14355,7 +14355,7 @@
     </row>
     <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" s="8">
         <f>COUNTIF(J2:J51,"&lt;50")</f>
@@ -14448,10 +14448,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14459,18 +14459,18 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>109146</v>
@@ -14478,13 +14478,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>59040</v>
@@ -14498,7 +14498,7 @@
         <v>139.8125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>10266</v>
@@ -14512,7 +14512,7 @@
         <v>179.17857142857142</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>3205</v>
@@ -14526,7 +14526,7 @@
         <v>199.8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>3648</v>
@@ -14540,7 +14540,7 @@
         <v>265</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>185305</v>
@@ -14548,18 +14548,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>170.36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14568,20 +14568,20 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
         <v>4914</v>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>2827</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>454</v>
@@ -14605,7 +14605,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>111</v>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>212</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>8518</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -14652,15 +14652,15 @@
   <sheetData>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -14673,7 +14673,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43A6CEA-53D0-45F1-8FD7-B18EA4B5C569}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -14696,36 +14696,36 @@
     <row r="1" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -14737,13 +14737,13 @@
         <v>139.8125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2">
         <v>109146</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2">
         <v>4914</v>
@@ -14757,13 +14757,13 @@
         <v>179.17857142857142</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
         <v>59040</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>2827</v>
@@ -14777,13 +14777,13 @@
         <v>199.8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
         <v>10266</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2">
         <v>454</v>
@@ -14797,13 +14797,13 @@
         <v>265</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>3205</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>111</v>
@@ -14811,19 +14811,19 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>170.36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>3648</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>212</v>
@@ -14831,16 +14831,16 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2">
         <v>185305</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2">
         <v>8518</v>
@@ -14848,10 +14848,10 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -14859,15 +14859,15 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -14875,22 +14875,22 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data_Cleaning_and_Analysis/Excel_datasets/homes.xlsx
+++ b/Excel_Data_Cleaning_and_Analysis/Excel_datasets/homes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpar\Desktop\Summer 2025\statistics-projects-summer-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpar\Documents\GitHub\statistics-projects-summer-2025\Excel_Data_Cleaning_and_Analysis\Excel_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B834C8D-0FBC-491D-8CF4-32EDB0905BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{44E705CA-B696-4565-921F-A5B7D54EC399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
   </bookViews>
@@ -52,24 +52,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="55">
-  <si>
-    <t xml:space="preserve"> "Living" (living space)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Rooms" (rooms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Beds" (bedrooms)</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="54">
   <si>
     <t xml:space="preserve"> "Baths" (bathrooms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Acres" (acreage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Taxes" (taxes)</t>
   </si>
   <si>
     <t>Price difference</t>
@@ -79,12 +64,6 @@
   </si>
   <si>
     <t>Sell                 (selling price)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "List"          (asking price)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Age"                 (age)</t>
   </si>
   <si>
     <t>Is Expensive?   (&gt; 150)</t>
@@ -217,6 +196,24 @@
   </si>
   <si>
     <t>tot selling price for homes with more than 4 beds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List          (asking price)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Living (living space)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baths</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>Taxes</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> "Living" (living space)</c:v>
+                  <c:v> Living (living space)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3188,7 +3185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> "Living" (living space)</c:v>
+                  <c:v> Living (living space)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9373,7 +9370,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9446,7 +9443,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9519,7 +9516,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11037,6 +11034,118 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2932BBF5-7783-4F9E-8970-645FBFA40D90}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Beds">
   <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -11158,26 +11267,26 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11213,7 +11322,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
   <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -11284,138 +11393,6 @@
     <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
-  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
     <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -11445,6 +11422,26 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11830,10 +11827,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11845,55 +11842,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -11951,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -12009,7 +12006,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -12063,7 +12060,7 @@
         <v>10</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -14324,7 +14321,7 @@
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" s="8">
         <f>SUM(B2:B51)</f>
@@ -14337,7 +14334,7 @@
     </row>
     <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F53" s="8">
         <f>AVERAGE(F2:F51)</f>
@@ -14346,7 +14343,7 @@
     </row>
     <row r="54" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B54" s="8">
         <f>SUMIF(H2:H51,"&gt;4",B2:B51)</f>
@@ -14355,7 +14352,7 @@
     </row>
     <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J55" s="8">
         <f>COUNTIF(J2:J51,"&lt;50")</f>
@@ -14399,7 +14396,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{8FDC3504-2BC1-477C-846E-A3419C455EB2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{8856C8E6-47BD-4836-A9A6-1D8ED4B24FC4}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -14448,29 +14445,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>109146</v>
@@ -14478,13 +14475,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>59040</v>
@@ -14498,7 +14495,7 @@
         <v>139.8125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>10266</v>
@@ -14512,7 +14509,7 @@
         <v>179.17857142857142</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>3205</v>
@@ -14526,7 +14523,7 @@
         <v>199.8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>3648</v>
@@ -14540,7 +14537,7 @@
         <v>265</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>185305</v>
@@ -14548,18 +14545,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>170.36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14568,20 +14565,20 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>4914</v>
@@ -14589,7 +14586,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>2827</v>
@@ -14597,7 +14594,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>454</v>
@@ -14605,7 +14602,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>111</v>
@@ -14613,7 +14610,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>212</v>
@@ -14621,7 +14618,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>8518</v>
@@ -14629,7 +14626,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -14652,15 +14649,15 @@
   <sheetData>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -14696,36 +14693,36 @@
     <row r="1" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -14737,13 +14734,13 @@
         <v>139.8125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>109146</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2">
         <v>4914</v>
@@ -14757,13 +14754,13 @@
         <v>179.17857142857142</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>59040</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2">
         <v>2827</v>
@@ -14777,13 +14774,13 @@
         <v>199.8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>10266</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
         <v>454</v>
@@ -14797,13 +14794,13 @@
         <v>265</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>3205</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2">
         <v>111</v>
@@ -14811,19 +14808,19 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>170.36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>3648</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
         <v>212</v>
@@ -14831,16 +14828,16 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2">
         <v>185305</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
         <v>8518</v>
@@ -14848,10 +14845,10 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -14859,15 +14856,15 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -14875,22 +14872,22 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I37" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I38" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
